--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76976.18857906891</v>
+        <v>-66598.6274468242</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21970439.92690547</v>
+        <v>22079641.42971941</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1085664.044142732</v>
+        <v>1020724.399200529</v>
       </c>
     </row>
     <row r="11">
@@ -23033,49 +23035,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.2587463296498</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>303.8846440306781</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>70.75136161874995</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
-        <v>40.88018142109519</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>40.5121283012307</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>35.16270217958864</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>26.16960234776164</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>24.70558680915735</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>28.78411920260946</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>38.68062560122957</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>48.7545716309821</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>63.30032116317597</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
-        <v>125.2176300895691</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>218.3110982283159</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.4593064281693</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23112,49 +23114,49 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.7156871369127</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>68.06446549689447</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>33.26482393573522</v>
+        <v>40.3065639</v>
       </c>
       <c r="J9" t="n">
-        <v>32.04616611589456</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>22.79957383374449</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>11.70671018907476</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>5.742459823057352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>9.089916217646909</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>15.20444079080882</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>30.58525545770977</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>46.3017442093376</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
-        <v>103.1111583538838</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>156.9240682287269</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3638471990916</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -23191,49 +23193,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.4064207588183</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>146.5868884245434</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>110.0261230059151</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
-        <v>39.31047085697391</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K10" t="n">
-        <v>32.32909088142202</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L10" t="n">
-        <v>29.1359158427119</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M10" t="n">
-        <v>29.38680413894989</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N10" t="n">
-        <v>25.47360920319289</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O10" t="n">
-        <v>31.8389011340275</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P10" t="n">
-        <v>35.04175936076656</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.00155242833039</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R10" t="n">
-        <v>76.71023806313595</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>181.5396586372421</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>236.4206224485193</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9608132663429</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23270,49 +23272,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H11" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I11" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J11" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K11" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L11" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M11" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678591627</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P11" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160524</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395125</v>
       </c>
       <c r="R11" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S11" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23349,19 +23351,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H12" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I12" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J12" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K12" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529454</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237374</v>
       </c>
       <c r="R12" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513828</v>
       </c>
       <c r="S12" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T12" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U12" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -23428,49 +23430,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H13" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I13" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J13" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K13" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300592</v>
       </c>
       <c r="L13" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094687</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N13" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319224</v>
       </c>
       <c r="O13" t="n">
-        <v>23.06022555481493</v>
+        <v>22.40367010010781</v>
       </c>
       <c r="P13" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666367</v>
       </c>
       <c r="R13" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S13" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T13" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23507,49 +23509,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H14" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I14" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J14" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K14" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L14" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M14" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678591627</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P14" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160524</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395125</v>
       </c>
       <c r="R14" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S14" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23586,19 +23588,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H15" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I15" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J15" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K15" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529454</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237374</v>
       </c>
       <c r="R15" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513828</v>
       </c>
       <c r="S15" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T15" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U15" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -23665,49 +23667,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H16" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I16" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J16" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K16" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300592</v>
       </c>
       <c r="L16" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094687</v>
       </c>
       <c r="M16" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N16" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319224</v>
       </c>
       <c r="O16" t="n">
-        <v>23.06022555481493</v>
+        <v>22.40367010010781</v>
       </c>
       <c r="P16" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666367</v>
       </c>
       <c r="R16" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S16" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T16" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23744,49 +23746,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H17" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I17" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J17" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K17" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L17" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M17" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P17" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R17" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S17" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23823,19 +23825,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H18" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I18" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J18" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K18" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R18" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S18" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T18" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U18" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23902,49 +23904,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H19" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I19" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J19" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K19" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L19" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M19" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N19" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O19" t="n">
-        <v>23.06022555481493</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P19" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R19" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S19" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T19" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23981,49 +23983,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H20" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I20" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J20" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K20" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L20" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M20" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P20" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R20" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S20" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24060,19 +24062,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H21" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I21" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J21" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K21" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R21" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S21" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T21" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U21" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -24139,49 +24141,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H22" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I22" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J22" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K22" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L22" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N22" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O22" t="n">
-        <v>23.06022555481493</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P22" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R22" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S22" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T22" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24218,49 +24220,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H23" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I23" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J23" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K23" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L23" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M23" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P23" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R23" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S23" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24297,19 +24299,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H24" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I24" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J24" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K24" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R24" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S24" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T24" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U24" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -24376,49 +24378,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H25" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I25" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J25" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K25" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L25" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M25" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N25" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O25" t="n">
-        <v>23.06022555481493</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P25" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R25" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S25" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T25" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24455,49 +24457,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H26" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I26" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J26" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K26" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L26" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M26" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P26" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R26" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S26" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24534,19 +24536,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H27" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I27" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J27" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K27" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R27" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S27" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T27" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U27" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -24613,49 +24615,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H28" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I28" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J28" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K28" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L28" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M28" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N28" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O28" t="n">
-        <v>23.06022555481493</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P28" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R28" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S28" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T28" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24692,49 +24694,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H29" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I29" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J29" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K29" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L29" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M29" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P29" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R29" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S29" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24771,19 +24773,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H30" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I30" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J30" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K30" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R30" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S30" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T30" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U30" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -24850,49 +24852,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H31" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I31" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J31" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K31" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L31" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M31" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N31" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O31" t="n">
-        <v>23.06022555481493</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P31" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R31" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S31" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T31" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24929,49 +24931,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H32" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I32" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J32" t="n">
-        <v>29.1286462554515</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K32" t="n">
-        <v>22.89962335916383</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L32" t="n">
-        <v>13.31283239473389</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M32" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5.455334146684066</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P32" t="n">
-        <v>18.77004728651484</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R32" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S32" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -25008,19 +25010,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H33" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I33" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J33" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K33" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R33" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S33" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T33" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U33" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -25087,49 +25089,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H34" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I34" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J34" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K34" t="n">
-        <v>25.11327702096817</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L34" t="n">
-        <v>19.90215841909199</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M34" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N34" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O34" t="n">
-        <v>23.06022555481493</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P34" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R34" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S34" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T34" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25166,49 +25168,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H35" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I35" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J35" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K35" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L35" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M35" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P35" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R35" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S35" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25245,19 +25247,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H36" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I36" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J36" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K36" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R36" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S36" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T36" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U36" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -25324,49 +25326,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I37" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J37" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K37" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L37" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M37" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N37" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O37" t="n">
-        <v>23.06022555481493</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P37" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R37" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S37" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T37" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25403,49 +25405,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H38" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I38" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J38" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K38" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L38" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M38" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P38" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R38" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S38" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25482,19 +25484,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H39" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I39" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J39" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K39" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R39" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S39" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T39" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U39" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -25561,49 +25563,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I40" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J40" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K40" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L40" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M40" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N40" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O40" t="n">
-        <v>23.06022555481493</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P40" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R40" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S40" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T40" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25640,49 +25642,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H41" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I41" t="n">
-        <v>65.41342074217175</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J41" t="n">
-        <v>29.12864625545149</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K41" t="n">
-        <v>22.89962335916381</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L41" t="n">
-        <v>13.31283239473387</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M41" t="n">
-        <v>1.857412192921856</v>
+        <v>0.03910817678591627</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>5.455334146684052</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P41" t="n">
-        <v>18.77004728651482</v>
+        <v>17.28093897160524</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.80255651301093</v>
+        <v>32.68429818395125</v>
       </c>
       <c r="R41" t="n">
-        <v>54.60284554970459</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S41" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25719,19 +25721,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H42" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I42" t="n">
-        <v>30.71419023103866</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J42" t="n">
-        <v>25.04703227731259</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K42" t="n">
-        <v>10.83693929797212</v>
+        <v>9.942256166529454</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.1287403823609</v>
+        <v>20.42148944237374</v>
       </c>
       <c r="R42" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35815323513828</v>
       </c>
       <c r="S42" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T42" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U42" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -25798,49 +25800,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0346923403866</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I43" t="n">
-        <v>108.158367743757</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J43" t="n">
-        <v>34.91943921434874</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K43" t="n">
-        <v>25.11327702096816</v>
+        <v>24.57360769300592</v>
       </c>
       <c r="L43" t="n">
-        <v>19.90215841909198</v>
+        <v>19.21156748094687</v>
       </c>
       <c r="M43" t="n">
-        <v>19.6511016040668</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N43" t="n">
-        <v>15.9693999142242</v>
+        <v>15.25858193319224</v>
       </c>
       <c r="O43" t="n">
-        <v>23.06022555481493</v>
+        <v>22.40367010010781</v>
       </c>
       <c r="P43" t="n">
-        <v>27.53008583968064</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.80085904267777</v>
+        <v>41.41190018666367</v>
       </c>
       <c r="R43" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S43" t="n">
-        <v>180.457286558174</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T43" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25877,49 +25879,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H44" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I44" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J44" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K44" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L44" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M44" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P44" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R44" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S44" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25956,19 +25958,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H45" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I45" t="n">
-        <v>30.71419023103866</v>
+        <v>30.51932592171037</v>
       </c>
       <c r="J45" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K45" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R45" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S45" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T45" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U45" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26035,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I46" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J46" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K46" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L46" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M46" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N46" t="n">
-        <v>15.9693999142242</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O46" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P46" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R46" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S46" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T46" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87144.24002112114</v>
+        <v>-1.746229827404022e-11</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>115833.9313963934</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>115833.9313963934</v>
+        <v>117670.0150409433</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>14524.04000352019</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19305.65523273223</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="F2" t="n">
-        <v>19305.65523273224</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="G2" t="n">
-        <v>19305.65523273224</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="H2" t="n">
-        <v>19305.65523273223</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="I2" t="n">
-        <v>19305.65523273224</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="J2" t="n">
-        <v>19305.65523273224</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="K2" t="n">
-        <v>19305.65523273224</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="L2" t="n">
-        <v>19305.65523273223</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="M2" t="n">
-        <v>19305.65523273224</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="N2" t="n">
-        <v>19305.65523273223</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="O2" t="n">
-        <v>19305.65523273223</v>
+        <v>19605.46212194761</v>
       </c>
       <c r="P2" t="n">
-        <v>19305.65523273224</v>
+        <v>19611.66917349055</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>81432.90918651226</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>27670.54747095017</v>
+        <v>106132.3321065896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>36.87444071542528</v>
       </c>
     </row>
     <row r="4">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35700.4729566144</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="F5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="G5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="H5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="I5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="J5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="K5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="L5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="M5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="N5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="O5" t="n">
-        <v>2823.701538119219</v>
+        <v>2879.855863027215</v>
       </c>
       <c r="P5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
-        <v>-102609.3421396065</v>
+        <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-11188.59377633715</v>
+        <v>-89406.72584766924</v>
       </c>
       <c r="F6" t="n">
-        <v>16481.95369461302</v>
+        <v>16725.60625892039</v>
       </c>
       <c r="G6" t="n">
-        <v>16481.95369461302</v>
+        <v>16725.6062589204</v>
       </c>
       <c r="H6" t="n">
-        <v>16481.95369461301</v>
+        <v>16725.60625892039</v>
       </c>
       <c r="I6" t="n">
-        <v>16481.95369461302</v>
+        <v>16725.6062589204</v>
       </c>
       <c r="J6" t="n">
-        <v>16481.95369461302</v>
+        <v>16725.60625892039</v>
       </c>
       <c r="K6" t="n">
-        <v>16481.95369461302</v>
+        <v>16725.6062589204</v>
       </c>
       <c r="L6" t="n">
-        <v>16481.95369461301</v>
+        <v>16725.60625892039</v>
       </c>
       <c r="M6" t="n">
-        <v>16481.95369461302</v>
+        <v>16725.6062589204</v>
       </c>
       <c r="N6" t="n">
-        <v>16481.95369461301</v>
+        <v>16725.60625892039</v>
       </c>
       <c r="O6" t="n">
-        <v>16481.95369461301</v>
+        <v>16725.60625892039</v>
       </c>
       <c r="P6" t="n">
-        <v>16481.95369461302</v>
+        <v>16693.73109962459</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>95.08591544102765</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553768</v>
       </c>
       <c r="F3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553768</v>
       </c>
       <c r="G3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="H3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="I3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="J3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="K3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="L3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="N3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="O3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1034799553768</v>
       </c>
       <c r="P3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
     </row>
     <row r="4">
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>95.08591544102765</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.44167805067963</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.05540229923468587</v>
       </c>
     </row>
     <row r="4">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3822549364463421</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.914768367881102</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.73688343734762</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>32.44340991221275</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.62426137198642</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>60.32269588325618</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>67.12062210928381</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>68.20670394746197</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>64.40565642317367</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>54.96873767965459</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.27923276816995</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>24.01182165154755</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>8.710634364271028</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.673320984293863</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03058039491570735</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2045244218920218</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.975275337746631</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.041739964264785</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.32307268410544</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>33.0262089508709</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>44.40781362177429</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>51.82182391536007</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>48.66156278235309</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.05519421199493</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>26.10736304712895</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.69845489606781</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.798951432950489</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8243769461349471</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01345555407184354</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1714664048936564</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.52449221805451</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5.15646243080196</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.12267482598151</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>19.9212786776448</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>25.49237805118961</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>26.87813835983015</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>26.23903630522655</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>24.23599693896883</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>20.73808227913822</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.35797323159518</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>7.709753078218404</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98819180164672</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7326291845456226</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009352712994199451</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522682</v>
       </c>
       <c r="H11" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I11" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J11" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809112</v>
       </c>
       <c r="K11" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L11" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832415</v>
       </c>
       <c r="M11" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025954</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P11" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927892</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.23124788614112</v>
+        <v>57.3495062152008</v>
       </c>
       <c r="R11" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S11" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T11" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218145</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285464</v>
       </c>
       <c r="H12" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186225</v>
       </c>
       <c r="I12" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78313507216706</v>
       </c>
       <c r="J12" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K12" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -31856,22 +31858,22 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246498</v>
       </c>
       <c r="R12" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S12" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T12" t="n">
-        <v>1.122979796404518</v>
+        <v>1.145312246028219</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01869388867293069</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H13" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I13" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J13" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K13" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L13" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295464</v>
       </c>
       <c r="M13" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099282</v>
       </c>
       <c r="N13" t="n">
-        <v>35.74324559419524</v>
+        <v>36.4540635752272</v>
       </c>
       <c r="O13" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P13" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R13" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S13" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902083</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522682</v>
       </c>
       <c r="H14" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I14" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J14" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809112</v>
       </c>
       <c r="K14" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L14" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832415</v>
       </c>
       <c r="M14" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025954</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P14" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927892</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.23124788614112</v>
+        <v>57.3495062152008</v>
       </c>
       <c r="R14" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S14" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T14" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218145</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285464</v>
       </c>
       <c r="H15" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186225</v>
       </c>
       <c r="I15" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78313507216706</v>
       </c>
       <c r="J15" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K15" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
@@ -32093,22 +32095,22 @@
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246498</v>
       </c>
       <c r="R15" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S15" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T15" t="n">
-        <v>1.122979796404518</v>
+        <v>1.145312246028219</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01869388867293069</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H16" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I16" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J16" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K16" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L16" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295464</v>
       </c>
       <c r="M16" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099282</v>
       </c>
       <c r="N16" t="n">
-        <v>35.74324559419524</v>
+        <v>36.4540635752272</v>
       </c>
       <c r="O16" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P16" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R16" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S16" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902083</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H17" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I17" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J17" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K17" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L17" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M17" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P17" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.23124788614112</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R17" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S17" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T17" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H18" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I18" t="n">
-        <v>9.592373668961342</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J18" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K18" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -32330,22 +32332,22 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R18" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S18" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T18" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H19" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I19" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J19" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K19" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L19" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M19" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N19" t="n">
-        <v>35.74324559419524</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O19" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P19" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R19" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S19" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H20" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I20" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J20" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K20" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L20" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M20" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P20" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.23124788614112</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R20" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S20" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T20" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H21" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I21" t="n">
-        <v>9.592373668961342</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J21" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K21" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -32567,22 +32569,22 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R21" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S21" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T21" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H22" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I22" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J22" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K22" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L22" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M22" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N22" t="n">
-        <v>35.74324559419524</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O22" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P22" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R22" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S22" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H23" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I23" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J23" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K23" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L23" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M23" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P23" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.23124788614112</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R23" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S23" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T23" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H24" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I24" t="n">
-        <v>9.592373668961342</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J24" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K24" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -32804,22 +32806,22 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R24" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S24" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T24" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H25" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I25" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J25" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K25" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L25" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M25" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N25" t="n">
-        <v>35.74324559419524</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O25" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P25" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R25" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S25" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H26" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I26" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J26" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K26" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L26" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M26" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P26" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.23124788614112</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R26" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S26" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T26" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H27" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I27" t="n">
-        <v>9.592373668961342</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J27" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K27" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -33041,22 +33043,22 @@
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R27" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S27" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T27" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H28" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I28" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J28" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K28" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L28" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M28" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N28" t="n">
-        <v>35.74324559419524</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O28" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P28" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R28" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S28" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H29" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I29" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J29" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K29" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L29" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M29" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P29" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.23124788614112</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R29" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S29" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T29" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H30" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I30" t="n">
-        <v>9.592373668961342</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J30" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K30" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
@@ -33278,22 +33280,22 @@
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R30" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S30" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T30" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H31" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I31" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J31" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K31" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L31" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M31" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N31" t="n">
-        <v>35.74324559419524</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O31" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P31" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R31" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S31" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5207139436852549</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H32" t="n">
-        <v>5.332761675766618</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I32" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J32" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K32" t="n">
-        <v>66.2367663140533</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L32" t="n">
-        <v>82.17256566811093</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M32" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N32" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>87.73444147909906</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P32" t="n">
-        <v>74.87931599436932</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.23124788614111</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R32" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S32" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T32" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2786065218500873</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H33" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I33" t="n">
-        <v>9.592373668961342</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J33" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K33" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -33515,22 +33517,22 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R33" t="n">
-        <v>17.29804352328876</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S33" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T33" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01832937643750575</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H34" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I34" t="n">
-        <v>7.024217692960127</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J34" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K34" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L34" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M34" t="n">
-        <v>36.61384089471324</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N34" t="n">
-        <v>35.74324559419524</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O34" t="n">
-        <v>33.01467251818139</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P34" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.55866661724779</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R34" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S34" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9979994908377441</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H35" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I35" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J35" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K35" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L35" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M35" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N35" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P35" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.23124788614112</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R35" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S35" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T35" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H36" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I36" t="n">
-        <v>9.592373668961342</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J36" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K36" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
@@ -33752,22 +33754,22 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R36" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S36" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T36" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H37" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I37" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J37" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K37" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L37" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M37" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N37" t="n">
-        <v>35.74324559419524</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O37" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P37" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R37" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S37" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H38" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I38" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J38" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K38" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L38" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M38" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P38" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.23124788614112</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R38" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S38" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T38" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H39" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I39" t="n">
-        <v>9.592373668961342</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J39" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K39" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
@@ -33989,22 +33991,22 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R39" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S39" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T39" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H40" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I40" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J40" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K40" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L40" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M40" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N40" t="n">
-        <v>35.74324559419524</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O40" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P40" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R40" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S40" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5310692661522682</v>
       </c>
       <c r="H41" t="n">
-        <v>5.332761675766619</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I41" t="n">
-        <v>20.07482431392581</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J41" t="n">
-        <v>44.19494507785645</v>
+        <v>45.07384012809112</v>
       </c>
       <c r="K41" t="n">
-        <v>66.23676631405331</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L41" t="n">
-        <v>82.17256566811095</v>
+        <v>83.80671321832415</v>
       </c>
       <c r="M41" t="n">
-        <v>91.4328122641236</v>
+        <v>93.25111628025954</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>87.73444147909908</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P41" t="n">
-        <v>74.87931599436934</v>
+        <v>76.36842430927892</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.23124788614112</v>
+        <v>57.3495062152008</v>
       </c>
       <c r="R41" t="n">
-        <v>32.70929726501893</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S41" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T41" t="n">
-        <v>2.279425288482205</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04248554129218145</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2841471078285464</v>
       </c>
       <c r="H42" t="n">
-        <v>2.690752461025844</v>
+        <v>2.744262857186225</v>
       </c>
       <c r="I42" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78313507216706</v>
       </c>
       <c r="J42" t="n">
-        <v>26.32220652268742</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K42" t="n">
-        <v>44.98884348664328</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
@@ -34226,22 +34228,22 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.56387812247782</v>
+        <v>36.27112906246498</v>
       </c>
       <c r="R42" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S42" t="n">
-        <v>5.174993947522452</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T42" t="n">
-        <v>1.122979796404518</v>
+        <v>1.145312246028219</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01869388867293069</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H43" t="n">
-        <v>2.076688302211308</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I43" t="n">
-        <v>7.024217692960128</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J43" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K43" t="n">
-        <v>27.13709253809866</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L43" t="n">
-        <v>34.72613547480952</v>
+        <v>35.41672641295464</v>
       </c>
       <c r="M43" t="n">
-        <v>36.61384089471325</v>
+        <v>37.34197221099282</v>
       </c>
       <c r="N43" t="n">
-        <v>35.74324559419524</v>
+        <v>36.4540635752272</v>
       </c>
       <c r="O43" t="n">
-        <v>33.0146725181814</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P43" t="n">
-        <v>28.24975580022414</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.5586666172478</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R43" t="n">
-        <v>10.50235208868826</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S43" t="n">
-        <v>4.070563880714799</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.017846484902083</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H44" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I44" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J44" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K44" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L44" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M44" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P44" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R44" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S44" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T44" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H45" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I45" t="n">
-        <v>9.592373668961342</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J45" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K45" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -34463,22 +34465,22 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.56387812247782</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R45" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S45" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T45" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H46" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I46" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J46" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K46" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L46" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M46" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N46" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O46" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P46" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R46" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S46" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66598.6274468242</v>
+        <v>-79335.64688048948</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22079641.42971941</v>
+        <v>22079703.50023485</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020724.399200529</v>
+        <v>1020702.892694906</v>
       </c>
     </row>
     <row r="11">
@@ -23524,10 +23524,10 @@
         <v>21.58238750890047</v>
       </c>
       <c r="L14" t="n">
-        <v>11.67868484452067</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03910817678591627</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23536,10 +23536,10 @@
         <v>3.710578808370059</v>
       </c>
       <c r="P14" t="n">
-        <v>17.28093897160524</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.68429818395125</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R14" t="n">
         <v>53.95236302478606</v>
@@ -23600,7 +23600,7 @@
         <v>24.52356840642668</v>
       </c>
       <c r="K15" t="n">
-        <v>9.942256166529454</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,10 +23618,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.42148944237374</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R15" t="n">
-        <v>41.35815323513828</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S15" t="n">
         <v>101.6322018848435</v>
@@ -23679,25 +23679,25 @@
         <v>34.59103480405435</v>
       </c>
       <c r="K16" t="n">
-        <v>24.57360769300592</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L16" t="n">
-        <v>19.21156748094687</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M16" t="n">
         <v>18.92297028778722</v>
       </c>
       <c r="N16" t="n">
-        <v>15.25858193319224</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O16" t="n">
-        <v>22.40367010010781</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P16" t="n">
         <v>26.968289224719</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.41190018666367</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R16" t="n">
         <v>73.70878111087413</v>
@@ -24235,10 +24235,10 @@
         <v>21.58238750890047</v>
       </c>
       <c r="L23" t="n">
-        <v>11.67868484452066</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03910817678588785</v>
+        <v>0.03910817678591627</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -24247,10 +24247,10 @@
         <v>3.710578808370059</v>
       </c>
       <c r="P23" t="n">
-        <v>17.28093897160522</v>
+        <v>17.28093897160524</v>
       </c>
       <c r="Q23" t="n">
-        <v>32.68429818395123</v>
+        <v>32.68429818395125</v>
       </c>
       <c r="R23" t="n">
         <v>53.95236302478606</v>
@@ -24311,7 +24311,7 @@
         <v>24.52356840642668</v>
       </c>
       <c r="K24" t="n">
-        <v>9.942256166529447</v>
+        <v>9.942256166529454</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.42148944237373</v>
+        <v>20.42148944237374</v>
       </c>
       <c r="R24" t="n">
-        <v>41.35815323513827</v>
+        <v>41.35815323513828</v>
       </c>
       <c r="S24" t="n">
         <v>101.6322018848435</v>
@@ -24390,25 +24390,25 @@
         <v>34.59103480405435</v>
       </c>
       <c r="K25" t="n">
-        <v>24.57360769300591</v>
+        <v>24.57360769300592</v>
       </c>
       <c r="L25" t="n">
-        <v>19.21156748094686</v>
+        <v>19.21156748094687</v>
       </c>
       <c r="M25" t="n">
         <v>18.92297028778722</v>
       </c>
       <c r="N25" t="n">
-        <v>15.25858193319223</v>
+        <v>15.25858193319224</v>
       </c>
       <c r="O25" t="n">
-        <v>22.4036701001078</v>
+        <v>22.40367010010781</v>
       </c>
       <c r="P25" t="n">
         <v>26.968289224719</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.41190018666366</v>
+        <v>41.41190018666367</v>
       </c>
       <c r="R25" t="n">
         <v>73.70878111087413</v>
@@ -25657,10 +25657,10 @@
         <v>21.58238750890047</v>
       </c>
       <c r="L41" t="n">
-        <v>11.67868484452067</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M41" t="n">
-        <v>0.03910817678591627</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -25669,10 +25669,10 @@
         <v>3.710578808370059</v>
       </c>
       <c r="P41" t="n">
-        <v>17.28093897160524</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.68429818395125</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R41" t="n">
         <v>53.95236302478606</v>
@@ -25733,7 +25733,7 @@
         <v>24.52356840642668</v>
       </c>
       <c r="K42" t="n">
-        <v>9.942256166529454</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.42148944237374</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R42" t="n">
-        <v>41.35815323513828</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S42" t="n">
         <v>101.6322018848435</v>
@@ -25812,25 +25812,25 @@
         <v>34.59103480405435</v>
       </c>
       <c r="K43" t="n">
-        <v>24.57360769300592</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L43" t="n">
-        <v>19.21156748094687</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M43" t="n">
         <v>18.92297028778722</v>
       </c>
       <c r="N43" t="n">
-        <v>15.25858193319224</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O43" t="n">
-        <v>22.40367010010781</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P43" t="n">
         <v>26.968289224719</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.41190018666367</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R43" t="n">
         <v>73.70878111087413</v>
@@ -25879,49 +25879,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1097092771328</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H44" t="n">
-        <v>302.3583183165892</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I44" t="n">
-        <v>65.00561065159138</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J44" t="n">
-        <v>28.23084788503724</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K44" t="n">
-        <v>21.55405633213152</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L44" t="n">
-        <v>11.64353751452478</v>
+        <v>11.67868484452066</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.03910817678588785</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>3.673052520349231</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P44" t="n">
-        <v>17.24891115298081</v>
+        <v>17.28093897160522</v>
       </c>
       <c r="Q44" t="n">
-        <v>32.66024662599554</v>
+        <v>32.68429818395123</v>
       </c>
       <c r="R44" t="n">
-        <v>53.93837241300997</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S44" t="n">
-        <v>121.8214482553398</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T44" t="n">
-        <v>217.6586885309231</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4473834639679</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25958,19 +25958,19 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.6359452837665</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H45" t="n">
-        <v>67.29432707308776</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I45" t="n">
-        <v>30.51932592171037</v>
+        <v>30.52342882783294</v>
       </c>
       <c r="J45" t="n">
-        <v>24.51230971842843</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K45" t="n">
-        <v>9.923013275483001</v>
+        <v>9.942256166529447</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.40627785259142</v>
+        <v>20.42148944237373</v>
       </c>
       <c r="R45" t="n">
-        <v>41.35075441487444</v>
+        <v>41.35815323513827</v>
       </c>
       <c r="S45" t="n">
-        <v>101.6299884061901</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T45" t="n">
-        <v>156.6026526013526</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3586010245425</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26037,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.339567867843</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H46" t="n">
-        <v>145.9925054484174</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I46" t="n">
-        <v>108.0156742482211</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J46" t="n">
-        <v>34.58397146501913</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K46" t="n">
-        <v>24.56200045719904</v>
+        <v>24.57360769300591</v>
       </c>
       <c r="L46" t="n">
-        <v>19.19671421534549</v>
+        <v>19.21156748094686</v>
       </c>
       <c r="M46" t="n">
-        <v>18.90730960179207</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N46" t="n">
-        <v>15.24329362330671</v>
+        <v>15.25858193319223</v>
       </c>
       <c r="O46" t="n">
-        <v>22.38954887144386</v>
+        <v>22.4036701001078</v>
       </c>
       <c r="P46" t="n">
-        <v>26.95620607407936</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.40353443947923</v>
+        <v>41.41190018666366</v>
       </c>
       <c r="R46" t="n">
-        <v>73.70428898346404</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S46" t="n">
-        <v>180.3745950736087</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T46" t="n">
-        <v>236.1349782779884</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9571667450169</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>117670.0150409433</v>
+        <v>117632.7727316857</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>19605.46212194761</v>
       </c>
       <c r="F2" t="n">
-        <v>19605.46212194761</v>
+        <v>19605.46212194762</v>
       </c>
       <c r="G2" t="n">
         <v>19605.46212194761</v>
@@ -26343,19 +26343,19 @@
         <v>19605.46212194761</v>
       </c>
       <c r="L2" t="n">
-        <v>19605.46212194761</v>
+        <v>19605.46212194762</v>
       </c>
       <c r="M2" t="n">
-        <v>19605.46212194761</v>
+        <v>19605.46212194762</v>
       </c>
       <c r="N2" t="n">
         <v>19605.46212194761</v>
       </c>
       <c r="O2" t="n">
+        <v>19605.46212194762</v>
+      </c>
+      <c r="P2" t="n">
         <v>19605.46212194761</v>
-      </c>
-      <c r="P2" t="n">
-        <v>19611.66917349055</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>36.87444071542528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26511,7 +26511,7 @@
         <v>2879.855863027215</v>
       </c>
       <c r="P5" t="n">
-        <v>2881.063633150532</v>
+        <v>2879.855863027215</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35256.42393032457</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35256.42393032457</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35256.42393032457</v>
       </c>
       <c r="E6" t="n">
-        <v>-89406.72584766924</v>
+        <v>-90839.49515677433</v>
       </c>
       <c r="F6" t="n">
-        <v>16725.60625892039</v>
+        <v>15292.83694981531</v>
       </c>
       <c r="G6" t="n">
-        <v>16725.6062589204</v>
+        <v>15292.8369498153</v>
       </c>
       <c r="H6" t="n">
-        <v>16725.60625892039</v>
+        <v>15292.8369498153</v>
       </c>
       <c r="I6" t="n">
-        <v>16725.6062589204</v>
+        <v>15292.8369498153</v>
       </c>
       <c r="J6" t="n">
-        <v>16725.60625892039</v>
+        <v>15292.8369498153</v>
       </c>
       <c r="K6" t="n">
-        <v>16725.6062589204</v>
+        <v>15292.8369498153</v>
       </c>
       <c r="L6" t="n">
-        <v>16725.60625892039</v>
+        <v>15292.83694981531</v>
       </c>
       <c r="M6" t="n">
-        <v>16725.6062589204</v>
+        <v>15292.83694981531</v>
       </c>
       <c r="N6" t="n">
-        <v>16725.60625892039</v>
+        <v>15292.8369498153</v>
       </c>
       <c r="O6" t="n">
-        <v>16725.60625892039</v>
+        <v>15292.83694981531</v>
       </c>
       <c r="P6" t="n">
-        <v>16693.73109962459</v>
+        <v>15292.8369498153</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>132.1034799553768</v>
       </c>
       <c r="F3" t="n">
-        <v>132.1034799553768</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="G3" t="n">
         <v>132.1034799553769</v>
@@ -26758,7 +26758,7 @@
         <v>132.1034799553769</v>
       </c>
       <c r="I3" t="n">
-        <v>132.1034799553769</v>
+        <v>132.1034799553768</v>
       </c>
       <c r="J3" t="n">
         <v>132.1034799553769</v>
@@ -26776,10 +26776,10 @@
         <v>132.1034799553769</v>
       </c>
       <c r="O3" t="n">
-        <v>132.1034799553768</v>
+        <v>132.1034799553769</v>
       </c>
       <c r="P3" t="n">
-        <v>132.1588822546115</v>
+        <v>132.1034799553769</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05540229923468587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5310692661522682</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H14" t="n">
         <v>5.438813121981919</v>
@@ -31998,16 +31998,16 @@
         <v>20.47404788333534</v>
       </c>
       <c r="J14" t="n">
-        <v>45.07384012809112</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K14" t="n">
         <v>67.55400216431666</v>
       </c>
       <c r="L14" t="n">
-        <v>83.80671321832415</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M14" t="n">
-        <v>93.25111628025954</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N14" t="n">
         <v>92.91229075661933</v>
@@ -32016,10 +32016,10 @@
         <v>89.47919681741307</v>
       </c>
       <c r="P14" t="n">
-        <v>76.36842430927892</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.3495062152008</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R14" t="n">
         <v>33.35977978993746</v>
@@ -32031,7 +32031,7 @@
         <v>2.324755712581556</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04248554129218145</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2841471078285464</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H15" t="n">
-        <v>2.744262857186225</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I15" t="n">
-        <v>9.78313507216706</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J15" t="n">
         <v>26.84567039357333</v>
@@ -32098,7 +32098,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.27112906246498</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R15" t="n">
         <v>17.64204587026713</v>
@@ -32107,10 +32107,10 @@
         <v>5.27790790199076</v>
       </c>
       <c r="T15" t="n">
-        <v>1.145312246028219</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01869388867293069</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32162,13 +32162,13 @@
         <v>27.67676186606091</v>
       </c>
       <c r="L16" t="n">
-        <v>35.41672641295464</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M16" t="n">
-        <v>37.34197221099282</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N16" t="n">
-        <v>36.4540635752272</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O16" t="n">
         <v>33.67122797288852</v>
@@ -32186,7 +32186,7 @@
         <v>4.151514279909136</v>
       </c>
       <c r="T16" t="n">
-        <v>1.017846484902083</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U16" t="n">
         <v>0.01299378491364364</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5310692661522683</v>
+        <v>0.5310692661522682</v>
       </c>
       <c r="H23" t="n">
         <v>5.438813121981919</v>
@@ -32709,16 +32709,16 @@
         <v>20.47404788333534</v>
       </c>
       <c r="J23" t="n">
-        <v>45.07384012809113</v>
+        <v>45.07384012809112</v>
       </c>
       <c r="K23" t="n">
         <v>67.55400216431666</v>
       </c>
       <c r="L23" t="n">
-        <v>83.80671321832416</v>
+        <v>83.80671321832415</v>
       </c>
       <c r="M23" t="n">
-        <v>93.25111628025957</v>
+        <v>93.25111628025954</v>
       </c>
       <c r="N23" t="n">
         <v>92.91229075661933</v>
@@ -32727,10 +32727,10 @@
         <v>89.47919681741307</v>
       </c>
       <c r="P23" t="n">
-        <v>76.36842430927894</v>
+        <v>76.36842430927892</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.34950621520081</v>
+        <v>57.3495062152008</v>
       </c>
       <c r="R23" t="n">
         <v>33.35977978993746</v>
@@ -32742,7 +32742,7 @@
         <v>2.324755712581556</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04248554129218146</v>
+        <v>0.04248554129218145</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2841471078285465</v>
+        <v>0.2841471078285464</v>
       </c>
       <c r="H24" t="n">
-        <v>2.744262857186226</v>
+        <v>2.744262857186225</v>
       </c>
       <c r="I24" t="n">
-        <v>9.783135072167061</v>
+        <v>9.78313507216706</v>
       </c>
       <c r="J24" t="n">
         <v>26.84567039357333</v>
@@ -32809,7 +32809,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.27112906246499</v>
+        <v>36.27112906246498</v>
       </c>
       <c r="R24" t="n">
         <v>17.64204587026713</v>
@@ -32818,10 +32818,10 @@
         <v>5.27790790199076</v>
       </c>
       <c r="T24" t="n">
-        <v>1.14531224602822</v>
+        <v>1.145312246028219</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0186938886729307</v>
+        <v>0.01869388867293069</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32873,13 +32873,13 @@
         <v>27.67676186606091</v>
       </c>
       <c r="L25" t="n">
-        <v>35.41672641295465</v>
+        <v>35.41672641295464</v>
       </c>
       <c r="M25" t="n">
-        <v>37.34197221099283</v>
+        <v>37.34197221099282</v>
       </c>
       <c r="N25" t="n">
-        <v>36.45406357522721</v>
+        <v>36.4540635752272</v>
       </c>
       <c r="O25" t="n">
         <v>33.67122797288852</v>
@@ -32897,7 +32897,7 @@
         <v>4.151514279909136</v>
       </c>
       <c r="T25" t="n">
-        <v>1.017846484902084</v>
+        <v>1.017846484902083</v>
       </c>
       <c r="U25" t="n">
         <v>0.01299378491364364</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5310692661522682</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H41" t="n">
         <v>5.438813121981919</v>
@@ -34131,16 +34131,16 @@
         <v>20.47404788333534</v>
       </c>
       <c r="J41" t="n">
-        <v>45.07384012809112</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K41" t="n">
         <v>67.55400216431666</v>
       </c>
       <c r="L41" t="n">
-        <v>83.80671321832415</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M41" t="n">
-        <v>93.25111628025954</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
@@ -34149,10 +34149,10 @@
         <v>89.47919681741307</v>
       </c>
       <c r="P41" t="n">
-        <v>76.36842430927892</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.3495062152008</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R41" t="n">
         <v>33.35977978993746</v>
@@ -34164,7 +34164,7 @@
         <v>2.324755712581556</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04248554129218145</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2841471078285464</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H42" t="n">
-        <v>2.744262857186225</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I42" t="n">
-        <v>9.78313507216706</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J42" t="n">
         <v>26.84567039357333</v>
@@ -34231,7 +34231,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.27112906246498</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R42" t="n">
         <v>17.64204587026713</v>
@@ -34240,10 +34240,10 @@
         <v>5.27790790199076</v>
       </c>
       <c r="T42" t="n">
-        <v>1.145312246028219</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01869388867293069</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34295,13 +34295,13 @@
         <v>27.67676186606091</v>
       </c>
       <c r="L43" t="n">
-        <v>35.41672641295464</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M43" t="n">
-        <v>37.34197221099282</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N43" t="n">
-        <v>36.4540635752272</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O43" t="n">
         <v>33.67122797288852</v>
@@ -34319,7 +34319,7 @@
         <v>4.151514279909136</v>
       </c>
       <c r="T43" t="n">
-        <v>1.017846484902083</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U43" t="n">
         <v>0.01299378491364364</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.531291988963262</v>
+        <v>0.5310692661522683</v>
       </c>
       <c r="H44" t="n">
-        <v>5.441094081970008</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I44" t="n">
-        <v>20.48263440450618</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J44" t="n">
-        <v>45.0927434482707</v>
+        <v>45.07384012809113</v>
       </c>
       <c r="K44" t="n">
-        <v>67.5823333410856</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L44" t="n">
-        <v>83.84186054832004</v>
+        <v>83.80671321832416</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>93.25111628025957</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>89.5167231054339</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P44" t="n">
-        <v>76.40045212790335</v>
+        <v>76.36842430927894</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.37355777315651</v>
+        <v>57.34950621520081</v>
       </c>
       <c r="R44" t="n">
-        <v>33.37377040171354</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S44" t="n">
-        <v>12.10681619850035</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T44" t="n">
-        <v>2.325730681686681</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04250335911706096</v>
+        <v>0.04248554129218146</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2842662750382211</v>
+        <v>0.2841471078285465</v>
       </c>
       <c r="H45" t="n">
-        <v>2.745413761553346</v>
+        <v>2.744262857186226</v>
       </c>
       <c r="I45" t="n">
-        <v>9.787237978289628</v>
+        <v>9.783135072167061</v>
       </c>
       <c r="J45" t="n">
-        <v>26.85692908157158</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K45" t="n">
-        <v>45.90276950913239</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -34468,19 +34468,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.2863406522473</v>
+        <v>36.27112906246499</v>
       </c>
       <c r="R45" t="n">
-        <v>17.64944469053096</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S45" t="n">
-        <v>5.280121380644146</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T45" t="n">
-        <v>1.14579257350932</v>
+        <v>1.14531224602822</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0187017286209356</v>
+        <v>0.0186938886729307</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2383192958689716</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H46" t="n">
-        <v>2.118875194180494</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I46" t="n">
-        <v>7.166911188495984</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J46" t="n">
-        <v>16.84917421793629</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K46" t="n">
-        <v>27.68836910186779</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L46" t="n">
-        <v>35.43157967855602</v>
+        <v>35.41672641295465</v>
       </c>
       <c r="M46" t="n">
-        <v>37.35763289698797</v>
+        <v>37.34197221099283</v>
       </c>
       <c r="N46" t="n">
-        <v>36.46935188511274</v>
+        <v>36.45406357522721</v>
       </c>
       <c r="O46" t="n">
-        <v>33.68534920155247</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P46" t="n">
-        <v>28.82363556582542</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.95599122044634</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R46" t="n">
-        <v>10.7157021578903</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S46" t="n">
-        <v>4.153255365280167</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T46" t="n">
-        <v>1.018273355076515</v>
+        <v>1.017846484902084</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01299923432012574</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
